--- a/medicine/Mort/Urban_Legend_3__Bloody_Mary/Urban_Legend_3__Bloody_Mary.xlsx
+++ b/medicine/Mort/Urban_Legend_3__Bloody_Mary/Urban_Legend_3__Bloody_Mary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Urban Legend 3: Bloody Mary, ou Légendes urbaines 3 : La légende de Bloody Mary au Québec, (Urban Legends: Bloody Mary) est un film américain réalisé par Mary Lambert sorti en 2005 en direct-to-video. Il est le dernier film de la trilogie Urban Legend. Le film abandonne la forme du slasher des précédents films et intègre à la place des événements surnaturels.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Salt Lake City, 1969. Trois jeunes étudiantes sont enlevées pendant un bal par leurs cavaliers. Mary, une des jeunes filles enlevées, parvint à fuir mais trouve la mort dans le sous-sol de son école. 35 ans plus tard, d'autres étudiantes ont été enlevées et retrouvées en parfaite santé. Les coupables sont les enfants des ravisseurs de 1969 qui ont suivi l'exemple de leurs pères. C'en est trop pour le fantôme de Mary qui décide de se venger en tuant les enfants de ses ravisseurs, ravisseurs eux-mêmes, en utilisant des légendes urbaines. Samantha Owens, une des filles enlevées 35 ans après la mort de Mary, et son frère jumeau Davis Owens, décident de retrouver le corps de Mary afin de l'enterrer et d'arrêter cette série de meurtres.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Urban Legends: Bloody Mary
 Titre français : Urban Legend 3: Bloody Mary
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kate Mara (VF : Ariane Aggiage) : Samantha Owens
 Robert Vito (VF : Alexis Tomassian) : David Owens
@@ -636,11 +654,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
-Nominations
-Golden Trailer Awards 2005 : nommé film le plus trash[1].</t>
+</t>
         </is>
       </c>
     </row>
@@ -665,10 +684,48 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Golden Trailer Awards 2005 : nommé film le plus trash.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Urban_Legend_3:_Bloody_Mary</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urban_Legend_3:_Bloody_Mary</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Urban Legend 3 : Bloody Mary n'est pas la suite à proprement parler des deux premiers films, bien qu'on y parle des événements du second opus de la saga.
 </t>
